--- a/tda_data_drift/combined_output.xlsx
+++ b/tda_data_drift/combined_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshul\Desktop\risk_econ\tda_data_drift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2F92D-05B5-4C44-91E0-97BEF50AAEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D7B41-47D6-4BBA-BE6B-03E989FAD06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{ED304AA7-163A-4F03-812A-3919FF5F5C39}"/>
+    <workbookView xWindow="1570" yWindow="6860" windowWidth="16860" windowHeight="10430" activeTab="9" xr2:uid="{ED304AA7-163A-4F03-812A-3919FF5F5C39}"/>
   </bookViews>
   <sheets>
     <sheet name=".001" sheetId="1" r:id="rId1"/>
@@ -1131,6 +1131,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dataset Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1196,6 +1251,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Persistent Entropy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2215,6 +2325,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dataset Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2280,6 +2445,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Persistent Entropy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4143,7 +4363,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
